--- a/SpeededInstructionsSheet.xlsx
+++ b/SpeededInstructionsSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/InfinityThesisTest5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestSlow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BBD4D-2DC9-0542-A146-0147739F3E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852503AD-222B-A74C-ABB4-2CD8E54224AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,16 +94,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>You will be shown a total of 160 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 160 statements.  Press E to Continue</t>
+    <t>FastInstructions</t>
   </si>
   <si>
-    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a timer on your screen and a reminder when you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press E to continue</t>
+    <t>You will be shown a total of 80 statements pertaining to mathematics, science, and social concepts. Your task is to determine whether each statement is true or false as quickly as possible without sacrificing accuracy. Some statements will be difficult and some will be easier.  We do not expect you to know the correct answer for all 80 statements.  Press F to Continue</t>
   </si>
   <si>
-    <t>If the statement is true, you will press the “E” key on your keyboard with your left pointer finger; if the statement is false, you will press the “I” key on your keyboard with your right pointer finger. Press E to continue</t>
+    <t>Each statement will appear on your screen for 5 seconds and you will have those 5 seconds to decide if it is true or false before the next statement appears. There will be a timer on your screen and a reminder when you have 2 seconds remaining. If you do not respond, that answer will be considered incorrect and the task will move on to the next statement. Press F to continue</t>
   </si>
   <si>
-    <t>FastInstructions</t>
+    <t>If the statement is true, you will press the “F” key on your keyboard with your left pointer finger; if the statement is false, you will press the “J” key on your keyboard with your right pointer finger. Press F to continue</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -517,22 +517,22 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -548,6 +548,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -661,12 +667,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -677,6 +677,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -692,21 +707,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
